--- a/hotels_list.xlsx
+++ b/hotels_list.xlsx
@@ -468,17 +468,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Page 148,晉緻酒店</t>
+          <t>恆好賓館</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HK$ 5,248</t>
+          <t>HK$ 1,290</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HK$ 750 稅費及其他費用</t>
+          <t>HK$ 43 稅費及其他費用</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -488,29 +488,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2,455 則真實評語</t>
+          <t>500 則真實評語</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>分數8.9分 - 很棒</t>
+          <t>分數7.1分 - 好</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Philippine Hostel</t>
+          <t>香港君悅酒店</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HK$ 1,602</t>
+          <t>HK$ 11,540</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HK$ 229 稅費及其他費用</t>
+          <t>HK$ 1,500 稅費及其他費用</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -520,29 +520,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>261 則真實評語</t>
+          <t>1,438 則真實評語</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>分數5.7分 - 評分</t>
+          <t>分數9.0分 - 好極了</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>香港逸東酒店</t>
+          <t>香港龍堡國際</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HK$ 4,675</t>
+          <t>HK$ 3,173</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HK$ 608 稅費及其他費用</t>
+          <t>HK$ 349 稅費及其他費用</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,29 +552,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4,305 則真實評語</t>
+          <t>3,184 則真實評語</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>分數8.4分 - 非常好</t>
+          <t>分數7.9分 - 好</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>恆豐酒店</t>
+          <t>香港朗廷酒店</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HK$ 5,200</t>
+          <t>HK$ 4,930</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HK$ 676 稅費及其他費用</t>
+          <t>HK$ 641 稅費及其他費用</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -584,29 +584,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1,479 則真實評語</t>
+          <t>1,476 則真實評語</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>分數7.8分 - 好</t>
+          <t>分數8.6分 - 很棒</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>香港半島酒店</t>
+          <t>香港逸東酒店</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HK$ 20,255</t>
+          <t>HK$ 2,781</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>HK$ 2,026 稅費及其他費用</t>
+          <t>HK$ 362 稅費及其他費用</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -616,29 +616,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>394 則真實評語</t>
+          <t>4,317 則真實評語</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>分數9.5分 - 傑出</t>
+          <t>分數8.4分 - 非常好</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>香港帝苑酒店</t>
+          <t>港威酒店</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HK$ 6,909</t>
+          <t>HK$ 4,497</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>HK$ 898 稅費及其他費用</t>
+          <t>HK$ 585 稅費及其他費用</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -648,29 +648,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2,051 則真實評語</t>
+          <t>1,001 則真實評語</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>分數8.6分 - 很棒</t>
+          <t>分數8.4分 - 非常好</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>港威酒店</t>
+          <t>香港九龍酒店</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HK$ 7,428</t>
+          <t>HK$ 3,670</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HK$ 966 稅費及其他費用</t>
+          <t>HK$ 477 稅費及其他費用</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -680,29 +680,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>996 則真實評語</t>
+          <t>4,924 則真實評語</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>分數8.4分 - 非常好</t>
+          <t>分數7.7分 - 好</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>馬哥孛羅香港酒店</t>
+          <t>香港金域假日酒店</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HK$ 6,981</t>
+          <t>HK$ 4,200</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HK$ 908 稅費及其他費用</t>
+          <t>HK$ 546 稅費及其他費用</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -712,29 +712,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1,166 則真實評語</t>
+          <t>3,087 則真實評語</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>分數7.9分 - 好</t>
+          <t>分數8.1分 - 非常好</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>登臺</t>
+          <t>恆豐酒店</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HK$ 10,352</t>
+          <t>HK$ 3,100</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HK$ 1,347 稅費及其他費用</t>
+          <t>HK$ 403 稅費及其他費用</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -744,29 +744,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1,046 則真實評語</t>
+          <t>1,484 則真實評語</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>分數9.1分 - 好極了</t>
+          <t>分數7.8分 - 好</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>香港夢卓恩酒店</t>
+          <t>Page 148,晉緻酒店</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HK$ 10,800</t>
+          <t>HK$ 2,681</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>HK$ 1,404 稅費及其他費用</t>
+          <t>HK$ 383 稅費及其他費用</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -776,29 +776,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>453 則真實評語</t>
+          <t>2,444 則真實評語</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>分數9.0分 - 好極了</t>
+          <t>分數8.9分 - 很棒</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>香港喜來登酒店</t>
+          <t>香港美麗華酒店</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HK$ 10,100</t>
+          <t>HK$ 4,830</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HK$ 1,313 稅費及其他費用</t>
+          <t>HK$ 628 稅費及其他費用</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -808,29 +808,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>801 則真實評語</t>
+          <t>985 則真實評語</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>分數8.0分 - 非常好</t>
+          <t>分數8.3分 - 非常好</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>香港美麗華酒店</t>
+          <t>香港帝苑酒店</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HK$ 7,929</t>
+          <t>HK$ 4,250</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>HK$ 1,031 稅費及其他費用</t>
+          <t>HK$ 553 稅費及其他費用</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -840,29 +840,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>984 則真實評語</t>
+          <t>2,054 則真實評語</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>分數8.3分 - 非常好</t>
+          <t>分數8.6分 - 很棒</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>帝樂文娜公館</t>
+          <t>香港喜來登酒店</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HK$ 4,604</t>
+          <t>HK$ 4,400</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HK$ 598 稅費及其他費用</t>
+          <t>HK$ 572 稅費及其他費用</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -872,29 +872,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1,923 則真實評語</t>
+          <t>803 則真實評語</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>分數8.4分 - 非常好</t>
+          <t>分數8.0分 - 非常好</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>The Ritz-Carlton, Hong Kong</t>
+          <t>帝樂文娜公館</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HK$ 22,230</t>
+          <t>HK$ 3,120</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>HK$ 2,890 稅費及其他費用</t>
+          <t>HK$ 406 稅費及其他費用</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>511 則真實評語</t>
+          <t>1,933 則真實評語</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>分數9.4分 - 好極了</t>
+          <t>分數8.4分 - 非常好</t>
         </is>
       </c>
     </row>
@@ -921,12 +921,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HK$ 6,834</t>
+          <t>HK$ 3,504</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>HK$ 976 稅費及其他費用</t>
+          <t>HK$ 501 稅費及其他費用</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1,337 則真實評語</t>
+          <t>1,341 則真實評語</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -948,17 +948,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>香港九龍酒店</t>
+          <t>九龍彩鴻酒店</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HK$ 5,387</t>
+          <t>HK$ 2,073</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>HK$ 701 稅費及其他費用</t>
+          <t>HK$ 296 稅費及其他費用</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -968,29 +968,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4,891 則真實評語</t>
+          <t>824 則真實評語</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>分數7.7分 - 好</t>
+          <t>分數7.4分 - 好</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dhillon Hotel -Guest House &amp; Hostel</t>
+          <t>彌敦酒店</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HK$ 1,840</t>
+          <t>HK$ 3,726</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HK$ 303 稅費及其他費用</t>
+          <t>HK$ 532 稅費及其他費用</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1000,29 +1000,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>43 則真實評語</t>
+          <t>1,673 則真實評語</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>分數4.6分 - 評分</t>
+          <t>分數8.4分 - 非常好</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Australia Lounge</t>
+          <t>香港夢卓恩酒店</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HK$ 2,046</t>
+          <t>HK$ 5,670</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>HK$ 276 稅費及其他費用</t>
+          <t>HK$ 737 稅費及其他費用</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1032,29 +1032,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>183 則真實評語</t>
+          <t>459 則真實評語</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>分數8.0分 - 非常好</t>
+          <t>分數9.0分 - 好極了</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>香港朗廷酒店</t>
+          <t>比利華賓館</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HK$ 8,118</t>
+          <t>HK$ 983</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HK$ 1,055 稅費及其他費用</t>
+          <t>HK$ 140 稅費及其他費用</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1064,29 +1064,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1,470 則真實評語</t>
+          <t>250 則真實評語</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>分數8.6分 - 很棒</t>
+          <t>分數7.6分 - 好</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Goodrich Hotel</t>
+          <t>華美達尖沙咀</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HK$ 2,805</t>
+          <t>HK$ 1,701</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>HK$ 280 稅費及其他費用</t>
+          <t>HK$ 221 稅費及其他費用</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1096,29 +1096,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2,061 則真實評語</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>分數6.3分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>九龍彩鴻酒店</t>
+          <t>Dash Living on Prat</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HK$ 4,195</t>
+          <t>HK$ 3,424</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HK$ 419 稅費及其他費用</t>
+          <t>HK$ 489 稅費及其他費用</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1128,29 +1128,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>824 則真實評語</t>
+          <t>84 則真實評語</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>分數7.4分 - 好</t>
+          <t>分數7.3分 - 好</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>君怡酒店</t>
+          <t>皇家太平洋酒店</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>HK$ 6,552</t>
+          <t>HK$ 3,672</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HK$ 936 稅費及其他費用</t>
+          <t>HK$ 477 稅費及其他費用</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1160,29 +1160,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1,155 則真實評語</t>
+          <t>804 則真實評語</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>分數7.2分 - 好</t>
+          <t>分數7.7分 - 好</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>九龍香格里拉</t>
+          <t>The Ritz-Carlton, Hong Kong</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>HK$ 10,600</t>
+          <t>HK$ 10,200</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HK$ 1,378 稅費及其他費用</t>
+          <t>HK$ 1,326 稅費及其他費用</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1192,29 +1192,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1,683 則真實評語</t>
+          <t>511 則真實評語</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>分數8.8分 - 很棒</t>
+          <t>分數9.4分 - 好極了</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>彌敦酒店</t>
+          <t>香港W酒店</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>HK$ 5,749</t>
+          <t>HK$ 9,100</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>HK$ 821 稅費及其他費用</t>
+          <t>HK$ 1,183 稅費及其他費用</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1224,29 +1224,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1,666 則真實評語</t>
+          <t>439 則真實評語</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>分數8.4分 - 非常好</t>
+          <t>分數8.8分 - 很棒</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>香港太子酒店</t>
+          <t>最佳盛品酒店尖沙咀（貝斯特韋斯特酒店）</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>HK$ 8,469</t>
+          <t>HK$ 1,733</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HK$ 1,101 稅費及其他費用</t>
+          <t>HK$ 248 稅費及其他費用</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1256,29 +1256,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>692 則真實評語</t>
+          <t>1,959 則真實評語</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>分數8.7分 - 很棒</t>
+          <t>分數5.3分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>香港龍堡國際</t>
+          <t>香港太子酒店</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>HK$ 4,392</t>
+          <t>HK$ 5,025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>HK$ 483 稅費及其他費用</t>
+          <t>HK$ 653 稅費及其他費用</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1288,29 +1288,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3,171 則真實評語</t>
+          <t>698 則真實評語</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>分數7.9分 - 好</t>
+          <t>分數8.7分 - 很棒</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>K11 ARTUS 寓館</t>
+          <t>Happy Land Inn 6 F</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>HK$ 23,573</t>
+          <t>HK$ 491</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>HK$ 3,064 稅費及其他費用</t>
+          <t>HK$ 16 稅費及其他費用</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1320,29 +1320,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>731 則真實評語</t>
+          <t>49 則真實評語</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>分數9.4分 - 好極了</t>
+          <t>分數6.0分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>華美達尖沙咀</t>
+          <t>New Yan Yan Guest House reception 9th floor Flat E4 E6</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HK$ 3,137</t>
+          <t>HK$ 683</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HK$ 408 稅費及其他費用</t>
+          <t>HK$ 98 稅費及其他費用</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1352,29 +1352,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2,046 則真實評語</t>
+          <t>744 則真實評語</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>分數6.3分 - 評分</t>
+          <t>分數7.5分 - 好</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>香港W酒店</t>
+          <t>馬哥孛羅香港酒店</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>HK$ 15,300</t>
+          <t>HK$ 4,453</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>HK$ 1,989 稅費及其他費用</t>
+          <t>HK$ 579 稅費及其他費用</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1384,29 +1384,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>437 則真實評語</t>
+          <t>1,172 則真實評語</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>分數8.8分 - 很棒</t>
+          <t>分數7.9分 - 好</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>皇家太平洋酒店</t>
+          <t>K11 ARTUS 寓館</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>HK$ 5,754</t>
+          <t>HK$ 19,200</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>HK$ 748 稅費及其他費用</t>
+          <t>HK$ 2,496 稅費及其他費用</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1416,29 +1416,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>802 則真實評語</t>
+          <t>732 則真實評語</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>分數7.8分 - 好</t>
+          <t>分數9.4分 - 好極了</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>香港麗晶酒店</t>
+          <t>帝國酒店</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>HK$ 20,214</t>
+          <t>HK$ 1,737</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>HK$ 2,628 稅費及其他費用</t>
+          <t>HK$ 248 稅費及其他費用</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1448,29 +1448,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>172 則真實評語</t>
+          <t>159 則真實評語</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>分數9.1分 - 好極了</t>
+          <t>分數4.6分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Hi-Inn</t>
+          <t>九龍香格里拉</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>HK$ 1,542</t>
+          <t>HK$ 4,845</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>HK$ 305 稅費及其他費用</t>
+          <t>HK$ 630 稅費及其他費用</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1480,29 +1480,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5 則真實評語</t>
+          <t>1,687 則真實評語</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>分數3.6分 - 評分</t>
+          <t>分數8.8分 - 很棒</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>樂棧 西九龍高鐵站店</t>
+          <t>Happy Land Guest House</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>HK$ 2,617</t>
+          <t>HK$ 442</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>HK$ 374 稅費及其他費用</t>
+          <t>HK$ 112 稅費及其他費用</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1512,29 +1512,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>218 則真實評語</t>
+          <t>107 則真實評語</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>分數7.3分 - 好</t>
+          <t>分數5.6分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>香港尖沙咀凱悅酒店</t>
+          <t>香港紅葉賓館</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>HK$ 10,830</t>
+          <t>HK$ 701</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>HK$ 1,408 稅費及其他費用</t>
+          <t>HK$ 139 稅費及其他費用</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1544,29 +1544,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1,111 則真實評語</t>
+          <t>108 則真實評語</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>分數8.6分 - 很棒</t>
+          <t>分數7.1分 - 好</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>恆好賓館</t>
+          <t>意樂館-薈@鴻運大廈</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>HK$ 2,365</t>
+          <t>HK$ 752</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HK$ 78 稅費及其他費用</t>
+          <t>HK$ 107 稅費及其他費用</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>498 則真實評語</t>
+          <t>58 則真實評語</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1588,17 +1588,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Dash Living on Prat</t>
+          <t>香港半島酒店</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>HK$ 4,842</t>
+          <t>HK$ 14,400</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>HK$ 633 稅費及其他費用</t>
+          <t>HK$ 1,872 稅費及其他費用</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1608,29 +1608,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>84 則真實評語</t>
+          <t>395 則真實評語</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>分數7.3分 - 好</t>
+          <t>分數9.5分 - 傑出</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>木的地酒店</t>
+          <t>珍珠高級賓館（10樓）</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>HK$ 7,859</t>
+          <t>HK$ 780</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>HK$ 1,123 稅費及其他費用</t>
+          <t>HK$ 23 稅費及其他費用</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1640,29 +1640,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>814 則真實評語</t>
+          <t>103 則真實評語</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>分數8.4分 - 非常好</t>
+          <t>分數6.7分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>港青- 香港基督教青年會</t>
+          <t>木的地酒店</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>HK$ 9,914</t>
+          <t>HK$ 2,816</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>HK$ 1,089 稅費及其他費用</t>
+          <t>HK$ 402 稅費及其他費用</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>733 則真實評語</t>
+          <t>810 則真實評語</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1684,17 +1684,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>David Lounge</t>
+          <t>Hop Inn</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>HK$ 2,089</t>
+          <t>HK$ 1,641</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HK$ 209 稅費及其他費用</t>
+          <t>HK$ 54 稅費及其他費用</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1704,29 +1704,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>160 則真實評語</t>
+          <t>1,955 則真實評語</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>分數6.9分 - 評分</t>
+          <t>分數8.1分 - 非常好</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>新格蘭賓館</t>
+          <t>貴賓室公寓</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>HK$ 2,718</t>
+          <t>HK$ 768</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>含稅費與其他費用</t>
+          <t>HK$ 138 稅費及其他費用</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1736,29 +1736,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3 則真實評語</t>
+          <t>402 則真實評語</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>分數6.0分 - 評分</t>
+          <t>分數7.8分 - 好</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>最佳盛品酒店尖沙咀（貝斯特韋斯特酒店）</t>
+          <t>Payless A2 Guest House</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>HK$ 2,883</t>
+          <t>HK$ 516</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>HK$ 412 稅費及其他費用</t>
+          <t>HK$ 130 稅費及其他費用</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1768,29 +1768,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1,952 則真實評語</t>
+          <t>28 則真實評語</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>分數5.2分 - 評分</t>
+          <t>分數4.7分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>優遊居</t>
+          <t>Philippine Manila Motel 8F MIRADOR</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>HK$ 2,944</t>
+          <t>HK$ 491</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HK$ 383 稅費及其他費用</t>
+          <t>HK$ 124 稅費及其他費用</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1800,29 +1800,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>86 則真實評語</t>
+          <t>55 則真實評語</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>分數7.4分 - 好</t>
+          <t>分數5.8分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Budget Hostel Block D 10th Floor</t>
+          <t>仕德福山景酒店</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>HK$ 1,839</t>
+          <t>HK$ 2,606</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>HK$ 303 稅費及其他費用</t>
+          <t>HK$ 372 稅費及其他費用</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1832,29 +1832,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>78 則真實評語</t>
+          <t>1,119 則真實評語</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>分數5.2分 - 評分</t>
+          <t>分數8.3分 - 非常好</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HK Peaceful Guesthouse</t>
+          <t>Unique Hostel</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>HK$ 1,916</t>
+          <t>HK$ 819</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>HK$ 191 稅費及其他費用</t>
+          <t>HK$ 27 稅費及其他費用</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1864,29 +1864,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>14 則真實評語</t>
+          <t>79 則真實評語</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>分數6.8分 - 評分</t>
+          <t>分數7.1分 - 好</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ILoilo Guest House</t>
+          <t>恆豐賓館</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>HK$ 1,827</t>
+          <t>HK$ 1,310</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HK$ 420 稅費及其他費用</t>
+          <t>HK$ 187 稅費及其他費用</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1896,29 +1896,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>9 則真實評語</t>
+          <t>277 則真實評語</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>分數5.0分 - 評分</t>
+          <t>分數8.2分 - 非常好</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">樂意賓館 </t>
+          <t>季節酒店</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>HK$ 1,934</t>
+          <t>HK$ 1,663</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>HK$ 276 稅費及其他費用</t>
+          <t>含稅費與其他費用</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1928,29 +1928,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>64 則真實評語</t>
+          <t>27 則真實評語</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>分數6.5分 - 評分</t>
+          <t>分數5.4分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>香港瑰麗酒店</t>
+          <t>Toronto Inn</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>HK$ 37,200</t>
+          <t>HK$ 548</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HK$ 4,836 稅費及其他費用</t>
+          <t>HK$ 138 稅費及其他費用</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1960,29 +1960,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>212 則真實評語</t>
+          <t>16 則真實評語</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>分數9.0分 - 好極了</t>
+          <t>分數3.6分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>瑞士旅館</t>
+          <t>ILoilo Guest House</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>HK$ 1,048</t>
+          <t>HK$ 675</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>HK$ 136 稅費及其他費用</t>
+          <t>HK$ 155 稅費及其他費用</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1992,29 +1992,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5 則真實評語</t>
+          <t>9 則真實評語</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>分數2.8分 - 評分</t>
+          <t>分數5.0分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Comfort Guest House - C and E</t>
+          <t>168 Youth Hostel</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>HK$ 3,249</t>
+          <t>HK$ 1,073</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>HK$ 107 稅費及其他費用</t>
+          <t>HK$ 35 稅費及其他費用</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2024,29 +2024,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>21 則真實評語</t>
+          <t>118 則真實評語</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>分數6.2分 - 評分</t>
+          <t>分數7.7分 - 好</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Hong Kong Sun Guest House</t>
+          <t>瑪妮拉旅館</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>HK$ 2,764</t>
+          <t>HK$ 897</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>HK$ 91 稅費及其他費用</t>
+          <t>HK$ 128 稅費及其他費用</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2056,29 +2056,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>72 則真實評語</t>
+          <t>147 則真實評語</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>分數6.1分 - 評分</t>
+          <t>分數7.4分 - 好</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>悉尼旅館</t>
+          <t>GLOBAL INN RECEPTION FLAT c 4 13 TH FLOOR BLOCK C</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>HK$ 1,517</t>
+          <t>HK$ 528</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>HK$ 411 稅費及其他費用</t>
+          <t>HK$ 75 稅費及其他費用</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2088,29 +2088,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>51 則真實評語</t>
+          <t>3 則真實評語</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>分數6.5分 - 評分</t>
+          <t>分數7.0分 - 好</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>新日夜賓館</t>
+          <t>香港麗晶酒店</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>HK$ 2,231</t>
+          <t>HK$ 13,000</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HK$ 368 稅費及其他費用</t>
+          <t>HK$ 1,690 稅費及其他費用</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2120,24 +2120,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>57 則真實評語</t>
+          <t>173 則真實評語</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>分數5.6分 - 評分</t>
+          <t>分數9.1分 - 好極了</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Victoria Inn</t>
+          <t>Hollywood guesthouse</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>HK$ 3,057</t>
+          <t>HK$ 680</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2152,29 +2152,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>181 則真實評語</t>
+          <t>28 則真實評語</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>分數8.4分 - 非常好</t>
+          <t>分數5.7分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Rhine Guest House</t>
+          <t>W賓館</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>HK$ 1,964</t>
+          <t>HK$ 643</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>HK$ 255 稅費及其他費用</t>
+          <t>HK$ 84 稅費及其他費用</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2184,29 +2184,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>20 則真實評語</t>
+          <t>8 則真實評語</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>分數7.0分 - 好</t>
+          <t>分數3.4分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>帝國酒店</t>
+          <t>Celltronik Hostel 先創旅店</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>HK$ 3,307</t>
+          <t>HK$ 1,548</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>HK$ 430 稅費及其他費用</t>
+          <t>HK$ 51 稅費及其他費用</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2216,29 +2216,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>159 則真實評語</t>
+          <t>148 則真實評語</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>分數4.6分 - 評分</t>
+          <t>分數7.6分 - 好</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Davao Hostel Block D RECEPTION 10TH FLOOR</t>
+          <t>太平洋賓館</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>HK$ 1,785</t>
+          <t>HK$ 546</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>HK$ 294 稅費及其他費用</t>
+          <t>HK$ 138 稅費及其他費用</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2248,29 +2248,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>21 則真實評語</t>
+          <t>134 則真實評語</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>分數5.0分 - 評分</t>
+          <t>分數6.0分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>瑪妮拉旅館</t>
+          <t>舒適館 佐敦港鐵站店</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>HK$ 2,189</t>
+          <t>HK$ 834</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>HK$ 289 稅費及其他費用</t>
+          <t>HK$ 119 稅費及其他費用</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2280,29 +2280,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>146 則真實評語</t>
+          <t>213 則真實評語</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>分數7.4分 - 好</t>
+          <t>分數7.0分 - 好</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>The Cultural Crashpad - 康乃馨旅館</t>
+          <t>客舍</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>HK$ 2,184</t>
+          <t>HK$ 2,350</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>HK$ 72 稅費及其他費用</t>
+          <t>HK$ 336 稅費及其他費用</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2312,29 +2312,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1,098 則真實評語</t>
+          <t>727 則真實評語</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>分數6.8分 - 評分</t>
+          <t>分數7.7分 - 好</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>New World Guest House 新世界賓館</t>
+          <t xml:space="preserve">樂意賓館 </t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>HK$ 4,550</t>
+          <t>HK$ 752</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>HK$ 150 稅費及其他費用</t>
+          <t>HK$ 107 稅費及其他費用</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2344,29 +2344,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4 則真實評語</t>
+          <t>64 則真實評語</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>分數8.0分 - 非常好</t>
+          <t>分數6.5分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>International Metro Guest House</t>
+          <t>New Fortunate Guest House A1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>HK$ 5,347</t>
+          <t>HK$ 575</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HK$ 176 稅費及其他費用</t>
+          <t>HK$ 145 稅費及其他費用</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2376,29 +2376,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>522 則真實評語</t>
+          <t>53 則真實評語</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>分數7.5分 - 好</t>
+          <t>分數4.0分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Zodiac Lodge</t>
+          <t>登臺</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>HK$ 2,500</t>
+          <t>HK$ 7,207</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HK$ 75 稅費及其他費用</t>
+          <t>HK$ 1,030 稅費及其他費用</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2408,29 +2408,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>42 則真實評語</t>
+          <t>1,049 則真實評語</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>分數6.3分 - 評分</t>
+          <t>分數9.1分 - 好極了</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Happy Land Inn 6 F</t>
+          <t>君怡酒店</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>HK$ 1,910</t>
+          <t>HK$ 4,328</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>HK$ 63 稅費及其他費用</t>
+          <t>HK$ 618 稅費及其他費用</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2440,29 +2440,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>48 則真實評語</t>
+          <t>1,163 則真實評語</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>分數6.0分 - 評分</t>
+          <t>分數7.2分 - 好</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Toronto Inn</t>
+          <t>Hong Kong Sun Guest House</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>HK$ 1,569</t>
+          <t>HK$ 730</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>HK$ 397 稅費及其他費用</t>
+          <t>HK$ 24 稅費及其他費用</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2472,29 +2472,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>16 則真實評語</t>
+          <t>72 則真實評語</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>分數3.6分 - 評分</t>
+          <t>分數6.1分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Modern</t>
+          <t>First Inn Hotel &amp; Guest House Reception at 10TH F, Block E</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>HK$ 2,920</t>
+          <t>HK$ 543</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>含稅費與其他費用</t>
+          <t>HK$ 89 稅費及其他費用</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2504,29 +2504,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>4 則真實評語</t>
+          <t>45 則真實評語</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>分數6.5分 - 評分</t>
+          <t>分數4.7分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Happy Land Guest House</t>
+          <t>嘉應賓館HAKKAS GUEST House</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>HK$ 1,597</t>
+          <t>HK$ 1,392</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>HK$ 404 稅費及其他費用</t>
+          <t>HK$ 199 稅費及其他費用</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2536,29 +2536,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>106 則真實評語</t>
+          <t>283 則真實評語</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>分數5.7分 - 評分</t>
+          <t>分數7.5分 - 好</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Manila Hotel -Hostel Block D</t>
+          <t>Hong Kong CoLiving Space</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>HK$ 2,001</t>
+          <t>HK$ 844</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>HK$ 330 稅費及其他費用</t>
+          <t>HK$ 213 稅費及其他費用</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2568,29 +2568,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>51 則真實評語</t>
+          <t>57 則真實評語</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>分數5.8分 - 評分</t>
+          <t>分數4.1分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Happyland Guest House</t>
+          <t>香港尖沙咀凱悅酒店</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>HK$ 1,412</t>
+          <t>HK$ 6,800</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>HK$ 357 稅費及其他費用</t>
+          <t>HK$ 884 稅費及其他費用</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2600,29 +2600,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>8 則真實評語</t>
+          <t>1,109 則真實評語</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>分數5.2分 - 評分</t>
+          <t>分數8.6分 - 很棒</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>KK HOTEL -Hostel</t>
+          <t>霖悅居</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>HK$ 3,288</t>
+          <t>HK$ 756</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>HK$ 108 稅費及其他費用</t>
+          <t>HK$ 25 稅費及其他費用</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2632,29 +2632,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>5 則真實評語</t>
+          <t>92 則真實評語</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>分數6.4分 - 評分</t>
+          <t>分數5.4分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>新倫敦旅館</t>
+          <t>溫莎品居</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>HK$ 1,577</t>
+          <t>HK$ 1,088</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>HK$ 209 稅費及其他費用</t>
+          <t>HK$ 33 稅費及其他費用</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2664,29 +2664,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>6 則真實評語</t>
+          <t>29 則真實評語</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>分數4.0分 - 評分</t>
+          <t>分數5.7分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>太平洋賓館</t>
+          <t>New London Guest House Mirador Mansion 13Floor</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>HK$ 1,775</t>
+          <t>HK$ 489</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>HK$ 449 稅費及其他費用</t>
+          <t>HK$ 124 稅費及其他費用</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2696,29 +2696,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>134 則真實評語</t>
+          <t>37 則真實評語</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>分數6.0分 - 評分</t>
+          <t>分數5.0分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Just Inn on Nathan Road</t>
+          <t>城市旅館</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>HK$ 3,249</t>
+          <t>HK$ 1,010</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>HK$ 107 稅費及其他費用</t>
+          <t>HK$ 211 稅費及其他費用</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2728,29 +2728,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>41 則真實評語</t>
+          <t>9 則真實評語</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>分數7.5分 - 好</t>
+          <t>分數2.4分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sleep Inn</t>
+          <t>鴻輝賓館</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>HK$ 2,920</t>
+          <t>HK$ 956</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>含稅費與其他費用</t>
+          <t>HK$ 32 稅費及其他費用</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2760,29 +2760,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>121 則真實評語</t>
+          <t>91 則真實評語</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>分數8.4分 - 非常好</t>
+          <t>分數7.2分 - 好</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Rich Hostel</t>
+          <t>New hoover hostel</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>HK$ 1,563</t>
+          <t>HK$ 601</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>HK$ 156 稅費及其他費用</t>
+          <t>HK$ 212 稅費及其他費用</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2792,29 +2792,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>7 則真實評語</t>
+          <t>29 則真實評語</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>分數2.9分 - 評分</t>
+          <t>分數6.2分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Skylark Hostel</t>
+          <t>旅客賓館</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>HK$ 1,522</t>
+          <t>HK$ 931</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>HK$ 301 稅費及其他費用</t>
+          <t>HK$ 149 稅費及其他費用</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2824,29 +2824,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2 則真實評語</t>
+          <t>298 則真實評語</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>分數2.5分 - 評分</t>
+          <t>分數7.4分 - 好</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Hollywood guesthouse</t>
+          <t>Mabo hotel</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>HK$ 1,450</t>
+          <t>HK$ 737</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>含稅費與其他費用</t>
+          <t>HK$ 24 稅費及其他費用</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2856,29 +2856,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>28 則真實評語</t>
+          <t>2 則真實評語</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>分數5.7分 - 評分</t>
+          <t>分數2.5分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>New Fortunate Guest House A1</t>
+          <t>Comfort Guest House - C and E</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>HK$ 1,762</t>
+          <t>HK$ 956</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>HK$ 445 稅費及其他費用</t>
+          <t>HK$ 32 稅費及其他費用</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2888,12 +2888,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>53 則真實評語</t>
+          <t>21 則真實評語</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>分數4.0分 - 評分</t>
+          <t>分數6.2分 - 評分</t>
         </is>
       </c>
     </row>

--- a/hotels_list.xlsx
+++ b/hotels_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,17 +468,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>恆好賓館</t>
+          <t>香港朗廷酒店</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HK$ 1,290</t>
+          <t>HK$ 7,820</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HK$ 43 稅費及其他費用</t>
+          <t>HK$ 1,017 稅費及其他費用</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -488,29 +488,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>500 則真實評語</t>
+          <t>1,482 則評語</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>分數7.1分 - 好</t>
+          <t>分數8.6分 - 很棒</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>香港君悅酒店</t>
+          <t>香港龍堡國際</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HK$ 11,540</t>
+          <t>HK$ 6,026</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HK$ 1,500 稅費及其他費用</t>
+          <t>HK$ 662 稅費及其他費用</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -520,29 +520,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1,438 則真實評語</t>
+          <t>3,192 則評語</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>分數9.0分 - 好極了</t>
+          <t>分數7.9分 - 好</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>香港龍堡國際</t>
+          <t>香港逸東酒店</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HK$ 3,173</t>
+          <t>HK$ 5,040</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HK$ 349 稅費及其他費用</t>
+          <t>HK$ 655 稅費及其他費用</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,29 +552,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3,184 則真實評語</t>
+          <t>4,337 則評語</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>分數7.9分 - 好</t>
+          <t>分數8.4分 - 非常好</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>香港朗廷酒店</t>
+          <t>恆豐酒店</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HK$ 4,930</t>
+          <t>HK$ 5,700</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HK$ 641 稅費及其他費用</t>
+          <t>HK$ 741 稅費及其他費用</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -584,29 +584,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1,476 則真實評語</t>
+          <t>1,492 則評語</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>分數8.6分 - 很棒</t>
+          <t>分數7.8分 - 好</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>香港逸東酒店</t>
+          <t>馬哥孛羅香港酒店</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HK$ 2,781</t>
+          <t>HK$ 7,110</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>HK$ 362 稅費及其他費用</t>
+          <t>HK$ 924 稅費及其他費用</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4,317 則真實評語</t>
+          <t>1,178 則評語</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>分數8.4分 - 非常好</t>
+          <t>分數7.9分 - 好</t>
         </is>
       </c>
     </row>
@@ -633,12 +633,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HK$ 4,497</t>
+          <t>HK$ 8,677</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>HK$ 585 稅費及其他費用</t>
+          <t>HK$ 1,128 稅費及其他費用</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1,001 則真實評語</t>
+          <t>1,002 則評語</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -660,17 +660,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>香港九龍酒店</t>
+          <t>香港太子酒店</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HK$ 3,670</t>
+          <t>HK$ 9,381</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HK$ 477 稅費及其他費用</t>
+          <t>HK$ 1,220 稅費及其他費用</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -680,29 +680,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4,924 則真實評語</t>
+          <t>699 則評語</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>分數7.7分 - 好</t>
+          <t>分數8.7分 - 很棒</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>香港金域假日酒店</t>
+          <t>香港喜來登酒店</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HK$ 4,200</t>
+          <t>HK$ 7,600</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HK$ 546 稅費及其他費用</t>
+          <t>HK$ 988 稅費及其他費用</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -712,29 +712,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3,087 則真實評語</t>
+          <t>805 則評語</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>分數8.1分 - 非常好</t>
+          <t>分數8.0分 - 非常好</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>恆豐酒店</t>
+          <t>香港帝苑酒店</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HK$ 3,100</t>
+          <t>HK$ 7,906</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HK$ 403 稅費及其他費用</t>
+          <t>HK$ 1,028 稅費及其他費用</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -744,12 +744,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1,484 則真實評語</t>
+          <t>2,063 則評語</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>分數7.8分 - 好</t>
+          <t>分數8.6分 - 很棒</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HK$ 2,681</t>
+          <t>HK$ 5,733</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>HK$ 383 稅費及其他費用</t>
+          <t>HK$ 819 稅費及其他費用</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2,444 則真實評語</t>
+          <t>2,441 則評語</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -788,17 +788,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>香港美麗華酒店</t>
+          <t>帝樂文娜公館</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HK$ 4,830</t>
+          <t>HK$ 6,757</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HK$ 628 稅費及其他費用</t>
+          <t>HK$ 965 稅費及其他費用</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -808,29 +808,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>985 則真實評語</t>
+          <t>1,947 則評語</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>分數8.3分 - 非常好</t>
+          <t>分數8.4分 - 非常好</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>香港帝苑酒店</t>
+          <t>香港美麗華酒店</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HK$ 4,250</t>
+          <t>HK$ 10,605</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>HK$ 553 稅費及其他費用</t>
+          <t>HK$ 1,379 稅費及其他費用</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -840,29 +840,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2,054 則真實評語</t>
+          <t>986 則評語</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>分數8.6分 - 很棒</t>
+          <t>分數8.3分 - 非常好</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>香港喜來登酒店</t>
+          <t>香港百樂酒店</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HK$ 4,400</t>
+          <t>HK$ 7,461</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HK$ 572 稅費及其他費用</t>
+          <t>HK$ 1,066 稅費及其他費用</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -872,29 +872,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>803 則真實評語</t>
+          <t>1,347 則評語</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>分數8.0分 - 非常好</t>
+          <t>分數8.7分 - 很棒</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>帝樂文娜公館</t>
+          <t>華美達尖沙咀</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HK$ 3,120</t>
+          <t>HK$ 4,373</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>HK$ 406 稅費及其他費用</t>
+          <t>HK$ 568 稅費及其他費用</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -904,29 +904,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1,933 則真實評語</t>
+          <t>2,075 則評語</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>分數8.4分 - 非常好</t>
+          <t>分數6.3分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>香港百樂酒店</t>
+          <t>皇家太平洋酒店</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HK$ 3,504</t>
+          <t>HK$ 6,660</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>HK$ 501 稅費及其他費用</t>
+          <t>HK$ 866 稅費及其他費用</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -936,29 +936,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1,341 則真實評語</t>
+          <t>806 則評語</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>分數8.7分 - 很棒</t>
+          <t>分數7.7分 - 好</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>九龍彩鴻酒店</t>
+          <t>K11 ARTUS 寓館</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HK$ 2,073</t>
+          <t>HK$ 26,800</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>HK$ 296 稅費及其他費用</t>
+          <t>HK$ 3,484 稅費及其他費用</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -968,29 +968,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>824 則真實評語</t>
+          <t>735 則評語</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>分數7.4分 - 好</t>
+          <t>分數9.4分 - 好極了</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>彌敦酒店</t>
+          <t>香港夢卓恩酒店</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HK$ 3,726</t>
+          <t>HK$ 13,005</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HK$ 532 稅費及其他費用</t>
+          <t>HK$ 1,691 稅費及其他費用</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1000,29 +1000,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1,673 則真實評語</t>
+          <t>463 則評語</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>分數8.4分 - 非常好</t>
+          <t>分數9.0分 - 好極了</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>香港夢卓恩酒店</t>
+          <t>The Ritz-Carlton, Hong Kong</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HK$ 5,670</t>
+          <t>HK$ 18,180</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>HK$ 737 稅費及其他費用</t>
+          <t>HK$ 2,363 稅費及其他費用</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1032,29 +1032,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>459 則真實評語</t>
+          <t>512 則評語</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>分數9.0分 - 好極了</t>
+          <t>分數9.4分 - 好極了</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>比利華賓館</t>
+          <t>最佳盛品酒店尖沙咀（貝斯特韋斯特酒店）</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HK$ 983</t>
+          <t>HK$ 4,004</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HK$ 140 稅費及其他費用</t>
+          <t>HK$ 572 稅費及其他費用</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1064,29 +1064,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>250 則真實評語</t>
+          <t>1,964 則評語</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>分數7.6分 - 好</t>
+          <t>分數5.3分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>華美達尖沙咀</t>
+          <t>九龍香格里拉</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HK$ 1,701</t>
+          <t>HK$ 7,353</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>HK$ 221 稅費及其他費用</t>
+          <t>HK$ 956 稅費及其他費用</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1096,29 +1096,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2,061 則真實評語</t>
+          <t>1,698 則評語</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>分數6.3分 - 評分</t>
+          <t>分數8.8分 - 很棒</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dash Living on Prat</t>
+          <t>登臺</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HK$ 3,424</t>
+          <t>HK$ 9,668</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HK$ 489 稅費及其他費用</t>
+          <t>HK$ 1,381 稅費及其他費用</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1128,29 +1128,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>84 則真實評語</t>
+          <t>1,062 則評語</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>分數7.3分 - 好</t>
+          <t>分數9.1分 - 好極了</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>皇家太平洋酒店</t>
+          <t>香港麗晶酒店</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>HK$ 3,672</t>
+          <t>HK$ 17,900</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HK$ 477 稅費及其他費用</t>
+          <t>HK$ 2,327 稅費及其他費用</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1160,29 +1160,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804 則真實評語</t>
+          <t>174 則評語</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>分數7.7分 - 好</t>
+          <t>分數9.2分 - 好極了</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>The Ritz-Carlton, Hong Kong</t>
+          <t>International Metro Guest House</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>HK$ 10,200</t>
+          <t>HK$ 6,110</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HK$ 1,326 稅費及其他費用</t>
+          <t>HK$ 201 稅費及其他費用</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1192,29 +1192,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>511 則真實評語</t>
+          <t>532 則評語</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>分數9.4分 - 好極了</t>
+          <t>分數7.5分 - 好</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>香港W酒店</t>
+          <t>Zodiac Lodge</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>HK$ 9,100</t>
+          <t>HK$ 2,000</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>HK$ 1,183 稅費及其他費用</t>
+          <t>HK$ 60 稅費及其他費用</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1224,29 +1224,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>439 則真實評語</t>
+          <t>42 則評語</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>分數8.8分 - 很棒</t>
+          <t>分數6.3分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>最佳盛品酒店尖沙咀（貝斯特韋斯特酒店）</t>
+          <t>Happy Land Inn 6 F</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>HK$ 1,733</t>
+          <t>HK$ 1,351</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HK$ 248 稅費及其他費用</t>
+          <t>HK$ 45 稅費及其他費用</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1256,29 +1256,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1,959 則真實評語</t>
+          <t>52 則評語</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>分數5.3分 - 評分</t>
+          <t>分數6.2分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>香港太子酒店</t>
+          <t>香港半島酒店</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>HK$ 5,025</t>
+          <t>HK$ 24,000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>HK$ 653 稅費及其他費用</t>
+          <t>HK$ 3,120 稅費及其他費用</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1288,29 +1288,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>698 則真實評語</t>
+          <t>398 則評語</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>分數8.7分 - 很棒</t>
+          <t>分數9.5分 - 傑出</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Happy Land Inn 6 F</t>
+          <t>Relaince international hostel</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>HK$ 491</t>
+          <t>HK$ 1,252</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>HK$ 16 稅費及其他費用</t>
+          <t>HK$ 330 稅費及其他費用</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1320,29 +1320,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>49 則真實評語</t>
+          <t>73 則評語</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>分數6.0分 - 評分</t>
+          <t>分數5.9分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>New Yan Yan Guest House reception 9th floor Flat E4 E6</t>
+          <t>香港尖沙咀凱悅酒店</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HK$ 683</t>
+          <t>HK$ 11,350</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HK$ 98 稅費及其他費用</t>
+          <t>HK$ 1,476 稅費及其他費用</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1352,29 +1352,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>744 則真實評語</t>
+          <t>1,112 則評語</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>分數7.5分 - 好</t>
+          <t>分數8.7分 - 很棒</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>馬哥孛羅香港酒店</t>
+          <t>貴賓室公寓</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>HK$ 4,453</t>
+          <t>HK$ 2,242</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>HK$ 579 稅費及其他費用</t>
+          <t>HK$ 402 稅費及其他費用</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1384,29 +1384,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1,172 則真實評語</t>
+          <t>404 則評語</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>分數7.9分 - 好</t>
+          <t>分數7.8分 - 好</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>K11 ARTUS 寓館</t>
+          <t>Toronto Inn</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>HK$ 19,200</t>
+          <t>HK$ 1,261</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>HK$ 2,496 稅費及其他費用</t>
+          <t>HK$ 319 稅費及其他費用</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1416,29 +1416,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>732 則真實評語</t>
+          <t>16 則評語</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>分數9.4分 - 好極了</t>
+          <t>分數3.6分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>帝國酒店</t>
+          <t>Happy Land Guest House</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>HK$ 1,737</t>
+          <t>HK$ 1,376</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>HK$ 248 稅費及其他費用</t>
+          <t>HK$ 348 稅費及其他費用</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1448,29 +1448,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>159 則真實評語</t>
+          <t>107 則評語</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>分數4.6分 - 評分</t>
+          <t>分數5.6分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>九龍香格里拉</t>
+          <t>Philippine Manila Motel 8F MIRADOR</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>HK$ 4,845</t>
+          <t>HK$ 1,247</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>HK$ 630 稅費及其他費用</t>
+          <t>HK$ 315 稅費及其他費用</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1480,29 +1480,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1,687 則真實評語</t>
+          <t>55 則評語</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>分數8.8分 - 很棒</t>
+          <t>分數5.8分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Happy Land Guest House</t>
+          <t>Payless A2 Guest House</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>HK$ 442</t>
+          <t>HK$ 1,229</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>HK$ 112 稅費及其他費用</t>
+          <t>HK$ 311 稅費及其他費用</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1512,29 +1512,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>107 則真實評語</t>
+          <t>28 則評語</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>分數5.6分 - 評分</t>
+          <t>分數4.7分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>香港紅葉賓館</t>
+          <t>ILoilo Guest House</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>HK$ 701</t>
+          <t>HK$ 1,471</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>HK$ 139 稅費及其他費用</t>
+          <t>HK$ 338 稅費及其他費用</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1544,29 +1544,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>108 則真實評語</t>
+          <t>10 則評語</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>分數7.1分 - 好</t>
+          <t>分數4.6分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>意樂館-薈@鴻運大廈</t>
+          <t>帝國酒店</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>HK$ 752</t>
+          <t>HK$ 4,467</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HK$ 107 稅費及其他費用</t>
+          <t>HK$ 638 稅費及其他費用</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1576,29 +1576,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>58 則真實評語</t>
+          <t>159 則評語</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>分數7.1分 - 好</t>
+          <t>分數4.6分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>香港半島酒店</t>
+          <t>GLOBAL INN RECEPTION FLAT c 4 13 TH FLOOR BLOCK C</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>HK$ 14,400</t>
+          <t>HK$ 1,138</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>HK$ 1,872 稅費及其他費用</t>
+          <t>HK$ 163 稅費及其他費用</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1608,29 +1608,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>395 則真實評語</t>
+          <t>4 則評語</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>分數9.5分 - 傑出</t>
+          <t>分數6.7分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>珍珠高級賓館（10樓）</t>
+          <t>瑪妮拉旅館</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>HK$ 780</t>
+          <t>HK$ 2,469</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>HK$ 23 稅費及其他費用</t>
+          <t>HK$ 353 稅費及其他費用</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1640,29 +1640,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>103 則真實評語</t>
+          <t>148 則評語</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>分數6.7分 - 評分</t>
+          <t>分數7.4分 - 好</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>木的地酒店</t>
+          <t>加州酒店</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>HK$ 2,816</t>
+          <t>HK$ 3,203</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>HK$ 402 稅費及其他費用</t>
+          <t>HK$ 96 稅費及其他費用</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1672,29 +1672,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>810 則真實評語</t>
+          <t>84 則評語</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>分數8.4分 - 非常好</t>
+          <t>分數6.5分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Hop Inn</t>
+          <t>New Fortunate Guest House A1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>HK$ 1,641</t>
+          <t>HK$ 1,417</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HK$ 54 稅費及其他費用</t>
+          <t>HK$ 358 稅費及其他費用</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1704,29 +1704,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1,955 則真實評語</t>
+          <t>53 則評語</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>分數8.1分 - 非常好</t>
+          <t>分數4.0分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>貴賓室公寓</t>
+          <t>Celltronik Hostel 先創旅店</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>HK$ 768</t>
+          <t>HK$ 3,956</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>HK$ 138 稅費及其他費用</t>
+          <t>HK$ 130 稅費及其他費用</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1736,29 +1736,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>402 則真實評語</t>
+          <t>148 則評語</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>分數7.8分 - 好</t>
+          <t>分數7.6分 - 好</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Payless A2 Guest House</t>
+          <t xml:space="preserve">樂意賓館 </t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>HK$ 516</t>
+          <t>HK$ 2,415</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>HK$ 130 稅費及其他費用</t>
+          <t>HK$ 345 稅費及其他費用</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1768,29 +1768,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>28 則真實評語</t>
+          <t>64 則評語</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>分數4.7分 - 評分</t>
+          <t>分數6.5分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Philippine Manila Motel 8F MIRADOR</t>
+          <t>太平洋賓館</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>HK$ 491</t>
+          <t>HK$ 1,502</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HK$ 124 稅費及其他費用</t>
+          <t>HK$ 380 稅費及其他費用</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1800,29 +1800,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>55 則真實評語</t>
+          <t>135 則評語</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>分數5.8分 - 評分</t>
+          <t>分數6.1分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>仕德福山景酒店</t>
+          <t>Rhine Guest House</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>HK$ 2,606</t>
+          <t>HK$ 2,439</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>HK$ 372 稅費及其他費用</t>
+          <t>HK$ 348 稅費及其他費用</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1832,29 +1832,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1,119 則真實評語</t>
+          <t>20 則評語</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>分數8.3分 - 非常好</t>
+          <t>分數7.0分 - 好</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Unique Hostel</t>
+          <t>Toronto Guest House</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>HK$ 819</t>
+          <t>HK$ 1,233</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>HK$ 27 稅費及其他費用</t>
+          <t>HK$ 312 稅費及其他費用</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1864,29 +1864,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>79 則真實評語</t>
+          <t>29 則評語</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>分數7.1分 - 好</t>
+          <t>分數4.8分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>恆豐賓館</t>
+          <t>港青- 香港基督教青年會</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>HK$ 1,310</t>
+          <t>HK$ 10,240</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HK$ 187 稅費及其他費用</t>
+          <t>HK$ 1,125 稅費及其他費用</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1896,29 +1896,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>277 則真實評語</t>
+          <t>733 則評語</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>分數8.2分 - 非常好</t>
+          <t>分數8.4分 - 非常好</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>季節酒店</t>
+          <t>旅客賓館</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>HK$ 1,663</t>
+          <t>HK$ 3,015</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>含稅費與其他費用</t>
+          <t>HK$ 482 稅費及其他費用</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1928,29 +1928,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>27 則真實評語</t>
+          <t>299 則評語</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>分數5.4分 - 評分</t>
+          <t>分數7.4分 - 好</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Toronto Inn</t>
+          <t>季節酒店</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>HK$ 548</t>
+          <t>HK$ 4,002</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HK$ 138 稅費及其他費用</t>
+          <t>含稅費與其他費用</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1960,29 +1960,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>16 則真實評語</t>
+          <t>27 則評語</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>分數3.6分 - 評分</t>
+          <t>分數5.4分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ILoilo Guest House</t>
+          <t>New London Guest House Mirador Mansion 13Floor</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>HK$ 675</t>
+          <t>HK$ 1,249</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>HK$ 155 稅費及其他費用</t>
+          <t>HK$ 316 稅費及其他費用</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>9 則真實評語</t>
+          <t>37 則評語</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2004,17 +2004,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>168 Youth Hostel</t>
+          <t>Simplex Guest House</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>HK$ 1,073</t>
+          <t>HK$ 1,485</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>HK$ 35 稅費及其他費用</t>
+          <t>HK$ 375 稅費及其他費用</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2024,29 +2024,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>118 則真實評語</t>
+          <t>17 則評語</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>分數7.7分 - 好</t>
+          <t>分數6.0分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>瑪妮拉旅館</t>
+          <t>舒適館 佐敦港鐵站店</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>HK$ 897</t>
+          <t>HK$ 3,028</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>HK$ 128 稅費及其他費用</t>
+          <t>HK$ 433 稅費及其他費用</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2056,29 +2056,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>147 則真實評語</t>
+          <t>214 則評語</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>分數7.4分 - 好</t>
+          <t>分數7.0分 - 好</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>GLOBAL INN RECEPTION FLAT c 4 13 TH FLOOR BLOCK C</t>
+          <t>新格蘭賓館</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>HK$ 528</t>
+          <t>HK$ 2,250</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>HK$ 75 稅費及其他費用</t>
+          <t>含稅費與其他費用</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2088,29 +2088,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3 則真實評語</t>
+          <t>3 則評語</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>分數7.0分 - 好</t>
+          <t>分數6.0分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>香港麗晶酒店</t>
+          <t>城市旅館</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>HK$ 13,000</t>
+          <t>HK$ 2,169</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HK$ 1,690 稅費及其他費用</t>
+          <t>HK$ 453 稅費及其他費用</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2120,29 +2120,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>173 則真實評語</t>
+          <t>9 則評語</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>分數9.1分 - 好極了</t>
+          <t>分數2.4分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Hollywood guesthouse</t>
+          <t>KK HOTEL -Hostel RECEPTION 10TH FLOOR BLOCK D CHUNG KING MANSION 40NATHAN ROAD TSIM SHA TSUI</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>HK$ 680</t>
+          <t>HK$ 4,176</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>含稅費與其他費用</t>
+          <t>HK$ 138 稅費及其他費用</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2152,29 +2152,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>28 則真實評語</t>
+          <t>7 則評語</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>分數5.7分 - 評分</t>
+          <t>分數7.0分 - 好</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>W賓館</t>
+          <t>Prime Star Inn</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>HK$ 643</t>
+          <t>HK$ 1,197</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>HK$ 84 稅費及其他費用</t>
+          <t>HK$ 303 稅費及其他費用</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2184,29 +2184,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>8 則真實評語</t>
+          <t>27 則評語</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>分數3.4分 - 評分</t>
+          <t>分數4.8分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Celltronik Hostel 先創旅店</t>
+          <t>Delta Lounge</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>HK$ 1,548</t>
+          <t>HK$ 2,332</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>HK$ 51 稅費及其他費用</t>
+          <t>HK$ 333 稅費及其他費用</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2216,29 +2216,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>148 則真實評語</t>
+          <t>257 則評語</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>分數7.6分 - 好</t>
+          <t>分數7.0分 - 好</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>太平洋賓館</t>
+          <t>辛格賓館</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>HK$ 546</t>
+          <t>HK$ 1,875</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>HK$ 138 稅費及其他費用</t>
+          <t>HK$ 474 稅費及其他費用</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2248,29 +2248,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>134 則真實評語</t>
+          <t>5 則評語</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>分數6.0分 - 評分</t>
+          <t>分數3.4分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>舒適館 佐敦港鐵站店</t>
+          <t>Reliance Inn</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>HK$ 834</t>
+          <t>HK$ 1,866</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>HK$ 119 稅費及其他費用</t>
+          <t>HK$ 62 稅費及其他費用</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2280,29 +2280,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>213 則真實評語</t>
+          <t>28 則評語</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>分數7.0分 - 好</t>
+          <t>分數4.4分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>客舍</t>
+          <t>First Inn Hotel &amp; Guest House Reception at 10TH F, Block E</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>HK$ 2,350</t>
+          <t>HK$ 2,220</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>HK$ 336 稅費及其他費用</t>
+          <t>HK$ 366 稅費及其他費用</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2312,29 +2312,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>727 則真實評語</t>
+          <t>45 則評語</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>分數7.7分 - 好</t>
+          <t>分數4.7分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">樂意賓館 </t>
+          <t>納迦蘭旅舍</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>HK$ 752</t>
+          <t>HK$ 2,159</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>HK$ 107 稅費及其他費用</t>
+          <t>HK$ 71 稅費及其他費用</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2344,29 +2344,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>64 則真實評語</t>
+          <t>28 則評語</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>分數6.5分 - 評分</t>
+          <t>分數4.2分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>New Fortunate Guest House A1</t>
+          <t>木的地酒店</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>HK$ 575</t>
+          <t>HK$ 21,158</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HK$ 145 稅費及其他費用</t>
+          <t>HK$ 3,023 稅費及其他費用</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2376,29 +2376,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>53 則真實評語</t>
+          <t>811 則評語</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>分數4.0分 - 評分</t>
+          <t>分數8.4分 - 非常好</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>登臺</t>
+          <t>香港瑰麗酒店</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>HK$ 7,207</t>
+          <t>HK$ 29,200</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HK$ 1,030 稅費及其他費用</t>
+          <t>HK$ 3,796 稅費及其他費用</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2408,29 +2408,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1,049 則真實評語</t>
+          <t>213 則評語</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>分數9.1分 - 好極了</t>
+          <t>分數9.0分 - 好極了</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>君怡酒店</t>
+          <t>第一賓館</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>HK$ 4,328</t>
+          <t>HK$ 4,153</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>HK$ 618 稅費及其他費用</t>
+          <t>HK$ 593 稅費及其他費用</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2440,29 +2440,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1,163 則真實評語</t>
+          <t>23 則評語</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>分數7.2分 - 好</t>
+          <t>分數4.3分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Hong Kong Sun Guest House</t>
+          <t>憙酒店</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>HK$ 730</t>
+          <t>HK$ 14,492</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>HK$ 24 稅費及其他費用</t>
+          <t>HK$ 2,070 稅費及其他費用</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2472,29 +2472,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>72 則真實評語</t>
+          <t>278 則評語</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>分數6.1分 - 評分</t>
+          <t>分數7.7分 - 好</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>First Inn Hotel &amp; Guest House Reception at 10TH F, Block E</t>
+          <t>新宇宙酒店</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>HK$ 543</t>
+          <t>HK$ 1,307</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HK$ 89 稅費及其他費用</t>
+          <t>HK$ 43 稅費及其他費用</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2504,29 +2504,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>45 則真實評語</t>
+          <t>5 則評語</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>分數4.7分 - 評分</t>
+          <t>分數3.0分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>嘉應賓館HAKKAS GUEST House</t>
+          <t>奧地利賓館 Chill House Motel</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>HK$ 1,392</t>
+          <t>HK$ 3,203</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>HK$ 199 稅費及其他費用</t>
+          <t>HK$ 106 稅費及其他費用</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2536,29 +2536,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>283 則真實評語</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>分數7.5分 - 好</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Hong Kong CoLiving Space</t>
+          <t>Everest Guest House</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>HK$ 844</t>
+          <t>HK$ 1,908</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>HK$ 213 稅費及其他費用</t>
+          <t>HK$ 273 稅費及其他費用</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2568,29 +2568,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>57 則真實評語</t>
+          <t>7 則評語</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>分數4.1分 - 評分</t>
+          <t>分數5.0分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>香港尖沙咀凱悅酒店</t>
+          <t>君悅賓館</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>HK$ 6,800</t>
+          <t>HK$ 1,635</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>HK$ 884 稅費及其他費用</t>
+          <t>HK$ 234 稅費及其他費用</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2600,29 +2600,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1,109 則真實評語</t>
+          <t>20 則評語</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>分數8.6分 - 很棒</t>
+          <t>分數3.5分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>霖悅居</t>
+          <t>四季陽光國際酒店</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>HK$ 756</t>
+          <t>HK$ 3,047</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>HK$ 25 稅費及其他費用</t>
+          <t>HK$ 100 稅費及其他費用</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2632,29 +2632,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>92 則真實評語</t>
+          <t>39 則評語</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>分數5.4分 - 評分</t>
+          <t>分數4.6分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>溫莎品居</t>
+          <t>Shanghai Red</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>HK$ 1,088</t>
+          <t>HK$ 3,320</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>HK$ 33 稅費及其他費用</t>
+          <t>HK$ 109 稅費及其他費用</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2664,29 +2664,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>29 則真實評語</t>
+          <t>24 則評語</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>分數5.7分 - 評分</t>
+          <t>分數4.8分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>New London Guest House Mirador Mansion 13Floor</t>
+          <t>大都市賓館</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>HK$ 489</t>
+          <t>HK$ 5,184</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>HK$ 124 稅費及其他費用</t>
+          <t>HK$ 674 稅費及其他費用</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2696,29 +2696,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>37 則真實評語</t>
+          <t>31 則評語</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>分數5.0分 - 評分</t>
+          <t>分數6.3分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>城市旅館</t>
+          <t>新廣州賓館</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>HK$ 1,010</t>
+          <t>HK$ 1,853</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>HK$ 211 稅費及其他費用</t>
+          <t>HK$ 265 稅費及其他費用</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2728,29 +2728,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>9 則真實評語</t>
+          <t>6 則評語</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>分數2.4分 - 評分</t>
+          <t>分數4.2分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>鴻輝賓館</t>
+          <t>Park Guesthouse</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>HK$ 956</t>
+          <t>HK$ 4,390</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>HK$ 32 稅費及其他費用</t>
+          <t>HK$ 627 稅費及其他費用</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2760,29 +2760,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>91 則真實評語</t>
+          <t>78 則評語</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>分數7.2分 - 好</t>
+          <t>分數6.5分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>New hoover hostel</t>
+          <t>大阪賓館</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>HK$ 601</t>
+          <t>HK$ 2,250</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>HK$ 212 稅費及其他費用</t>
+          <t>含稅費與其他費用</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2792,29 +2792,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>29 則真實評語</t>
+          <t>14 則評語</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>分數6.2分 - 評分</t>
+          <t>分數4.6分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>旅客賓館</t>
+          <t>巴黎賓館</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>HK$ 931</t>
+          <t>HK$ 2,058</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>HK$ 149 稅費及其他費用</t>
+          <t>HK$ 407 稅費及其他費用</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2824,29 +2824,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>298 則真實評語</t>
+          <t>6 則評語</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>分數7.4分 - 好</t>
+          <t>分數2.4分 - 評分</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Mabo hotel</t>
+          <t>Pacific Lodge Reception 10th Floor Block D</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>HK$ 737</t>
+          <t>HK$ 2,730</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>HK$ 24 稅費及其他費用</t>
+          <t>HK$ 540 稅費及其他費用</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2856,44 +2856,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2 則真實評語</t>
+          <t>13 則評語</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>分數2.5分 - 評分</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Comfort Guest House - C and E</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>HK$ 956</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>HK$ 32 稅費及其他費用</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>21 則真實評語</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>分數6.2分 - 評分</t>
+          <t>分數4.3分 - 評分</t>
         </is>
       </c>
     </row>
